--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4527.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4527.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4527</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Adam Zampa</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Leg Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>06/02/2016</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3888</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>05/06/2016</t>
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3894</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -692,7 +755,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>11/06/2016</t>
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3896</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -740,7 +802,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>13/06/2016</t>
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3898</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -840,7 +901,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>21/08/2016</t>
@@ -848,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3923</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3924</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3927</t>
+          <t>3927</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -992,7 +1052,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>31/08/2016</t>
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3929</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1040,7 +1099,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>04/09/2016</t>
@@ -1048,7 +1106,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3931</t>
+          <t>3931</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1088,7 +1146,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>27/09/2016</t>
@@ -1096,7 +1153,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3937</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1148,7 +1205,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3940</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3942</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1240,7 +1297,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>05/10/2016</t>
@@ -1248,7 +1304,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3945</t>
+          <t>3945</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3947</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3950</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1404,7 +1460,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1444,7 +1500,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>22/01/2017</t>
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1492,7 +1547,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>26/01/2017</t>
@@ -1500,7 +1554,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1552,7 +1606,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1592,7 +1646,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>05/06/2017</t>
@@ -1600,7 +1653,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1652,7 +1705,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1704,7 +1757,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1744,7 +1797,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>28/09/2017</t>
@@ -1752,7 +1804,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1792,7 +1844,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>01/10/2017</t>
@@ -1800,7 +1851,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1840,7 +1891,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>14/01/2018</t>
@@ -1848,7 +1898,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1888,7 +1938,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -1896,7 +1945,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1936,7 +1985,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>26/01/2018</t>
@@ -1944,7 +1992,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1996,7 +2044,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2048,7 +2096,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2100,7 +2148,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2152,7 +2200,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2192,7 +2240,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -2200,7 +2247,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2252,7 +2299,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2292,7 +2339,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>08/03/2019</t>
@@ -2300,7 +2346,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2340,7 +2386,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>10/03/2019</t>
@@ -2348,7 +2393,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2388,7 +2433,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>13/03/2019</t>
@@ -2396,7 +2440,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2436,7 +2480,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>22/03/2019</t>
@@ -2444,7 +2487,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2484,7 +2527,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>23/03/2019</t>
@@ -2492,7 +2534,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2532,7 +2574,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>27/03/2019</t>
@@ -2540,7 +2581,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2580,7 +2621,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>29/03/2019</t>
@@ -2588,7 +2628,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2628,7 +2668,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>31/03/2019</t>
@@ -2636,7 +2675,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2676,7 +2715,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -2684,7 +2722,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2736,7 +2774,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2788,7 +2826,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2828,7 +2866,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>20/06/2019</t>
@@ -2836,7 +2873,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2876,7 +2913,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>14/01/2020</t>
@@ -2884,7 +2920,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2936,7 +2972,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2988,7 +3024,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3040,7 +3076,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3092,7 +3128,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3132,7 +3168,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>07/03/2020</t>
@@ -3140,7 +3175,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3180,7 +3215,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>13/03/2020</t>
@@ -3188,7 +3222,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3240,7 +3274,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3292,7 +3326,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3332,7 +3366,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>16/09/2020</t>
@@ -3340,7 +3373,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3380,7 +3413,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>27/11/2020</t>
@@ -3388,7 +3420,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3428,7 +3460,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>29/11/2020</t>
@@ -3436,7 +3467,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3488,7 +3519,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3540,7 +3571,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3592,7 +3623,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3632,7 +3663,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>26/07/2021</t>
@@ -3640,7 +3670,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3680,7 +3710,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>29/03/2022</t>
@@ -3688,7 +3717,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3740,7 +3769,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3792,7 +3821,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3832,7 +3861,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>28/08/2022</t>
@@ -3840,7 +3868,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4644</t>
+          <t>4644</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3880,7 +3908,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>31/08/2022</t>
@@ -3888,7 +3915,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4645</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3940,7 +3967,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4646</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3992,7 +4019,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4044,7 +4071,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4084,7 +4111,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>11/09/2022</t>
@@ -4092,7 +4118,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4132,7 +4158,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>17/11/2022</t>
@@ -4140,7 +4165,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4192,7 +4217,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4232,7 +4257,6 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>22/11/2022</t>
@@ -4240,7 +4264,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4292,7 +4316,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4332,7 +4356,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>19/03/2023</t>
@@ -4340,7 +4363,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4392,7 +4415,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4431,7 +4454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4453,7 +4476,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4490,7 +4513,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4527,7 +4550,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3888</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4564,7 +4587,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4601,7 +4624,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3894</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4638,7 +4661,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3896</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4675,7 +4698,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3898</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4712,7 +4735,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4749,7 +4772,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3923</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4786,7 +4809,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3924</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4823,7 +4846,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3927</t>
+          <t>3927</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4860,7 +4883,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3929</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4897,7 +4920,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3931</t>
+          <t>3931</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4934,7 +4957,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3937</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4971,7 +4994,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3940</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5008,7 +5031,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3942</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5045,7 +5068,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3945</t>
+          <t>3945</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5082,7 +5105,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3947</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5119,7 +5142,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3950</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5156,7 +5179,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5193,7 +5216,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5230,7 +5253,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5267,7 +5290,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5304,7 +5327,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5341,7 +5364,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5378,7 +5401,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5415,7 +5438,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5452,7 +5475,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5489,7 +5512,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5526,7 +5549,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5563,7 +5586,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5600,7 +5623,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5637,7 +5660,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5674,7 +5697,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5711,7 +5734,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5748,7 +5771,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5785,7 +5808,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5822,7 +5845,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5859,7 +5882,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5896,7 +5919,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5933,7 +5956,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5970,7 +5993,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6007,7 +6030,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6044,7 +6067,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6081,7 +6104,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6118,7 +6141,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6155,7 +6178,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6192,7 +6215,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6229,7 +6252,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6266,7 +6289,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6303,7 +6326,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6340,7 +6363,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6377,7 +6400,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6414,7 +6437,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6451,7 +6474,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6488,7 +6511,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6525,7 +6548,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6562,7 +6585,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6599,7 +6622,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6636,7 +6659,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6673,7 +6696,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6710,7 +6733,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6747,7 +6770,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6784,7 +6807,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6821,7 +6844,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6858,7 +6881,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6895,7 +6918,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6932,7 +6955,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6969,7 +6992,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4644</t>
+          <t>4644</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7006,7 +7029,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4645</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7043,7 +7066,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4646</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7080,7 +7103,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7117,7 +7140,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7154,7 +7177,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -7191,7 +7214,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -7228,7 +7251,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -7265,7 +7288,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -7302,7 +7325,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -7339,7 +7362,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -7376,7 +7399,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -7402,6 +7425,491 @@
       <c r="G80" t="inlineStr">
         <is>
           <t>4/45</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.38%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.76%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>19.25%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.71%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8.21%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>11</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3.72%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4527.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4527.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7485,15 +7486,433 @@
           <t>4436</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.38%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.76%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>19.25%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.71%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8.21%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>11</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3.72%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7501,27 +7920,14 @@
           <t>4437</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>10</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.38%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7531,27 +7937,14 @@
           <t>4483</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>9</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.76%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7561,27 +7954,14 @@
           <t>4484</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>9</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>19.25%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -7593,13 +7973,6 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7607,15 +7980,14 @@
           <t>4564</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -7627,13 +7999,6 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7641,25 +8006,12 @@
           <t>4567</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7667,15 +8019,14 @@
           <t>4644</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -7685,17 +8036,8 @@
           <t>4645</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7703,29 +8045,12 @@
           <t>4646</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.71%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7735,13 +8060,6 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7749,27 +8067,14 @@
           <t>4648</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>10</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8.21%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -7779,15 +8084,14 @@
           <t>4649</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7799,13 +8103,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7815,13 +8112,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7831,13 +8121,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7845,25 +8128,12 @@
           <t>4725</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>11</v>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7871,17 +8141,12 @@
           <t>4728</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>10</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7889,27 +8154,14 @@
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>11</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.72%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4527.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4527.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7486,6 +7485,10 @@
           <t>4436</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7588,6 +7591,10 @@
           <t>4486</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7603,6 +7610,9 @@
       <c r="B7" t="n">
         <v>10</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7615,6 +7625,10 @@
           <t>4565</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7640,6 +7654,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7655,6 +7670,9 @@
       <c r="B10" t="n">
         <v>10</v>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7670,6 +7688,9 @@
       <c r="B11" t="n">
         <v>10</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7712,6 +7733,10 @@
           <t>4647</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7757,6 +7782,9 @@
       <c r="B15" t="n">
         <v>10</v>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7769,6 +7797,10 @@
           <t>4660</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7781,6 +7813,10 @@
           <t>4663</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7793,6 +7829,10 @@
           <t>4666</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7818,6 +7858,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7833,6 +7874,9 @@
       <c r="B20" t="n">
         <v>10</v>
       </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7866,302 +7910,6 @@
       <c r="F21" t="inlineStr">
         <is>
           <t>YES</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4437</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4483</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4484</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4564</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4565</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4567</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4644</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4645</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4646</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4666</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4728</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4732</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>40.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4527.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4527.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>06/02/2016</t>
@@ -656,6 +656,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>05/06/2016</t>
@@ -755,6 +756,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>11/06/2016</t>
@@ -802,6 +804,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>13/06/2016</t>
@@ -901,6 +904,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>21/08/2016</t>
@@ -1052,6 +1056,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>31/08/2016</t>
@@ -1099,6 +1104,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>04/09/2016</t>
@@ -1146,6 +1152,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>27/09/2016</t>
@@ -1297,6 +1304,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>05/10/2016</t>
@@ -1500,6 +1508,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>22/01/2017</t>
@@ -1547,6 +1556,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>26/01/2017</t>
@@ -1646,6 +1656,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>05/06/2017</t>
@@ -1797,6 +1808,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>28/09/2017</t>
@@ -1844,6 +1856,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>01/10/2017</t>
@@ -1891,6 +1904,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>14/01/2018</t>
@@ -1938,6 +1952,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -1985,6 +2000,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>26/01/2018</t>
@@ -2240,6 +2256,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -2339,6 +2356,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>08/03/2019</t>
@@ -2386,6 +2404,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>10/03/2019</t>
@@ -2433,6 +2452,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>13/03/2019</t>
@@ -2480,6 +2500,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>22/03/2019</t>
@@ -2527,6 +2548,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>23/03/2019</t>
@@ -2574,6 +2596,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>27/03/2019</t>
@@ -2621,6 +2644,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>29/03/2019</t>
@@ -2668,6 +2692,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>31/03/2019</t>
@@ -2715,6 +2740,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -2866,6 +2892,7 @@
           <t>48</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>20/06/2019</t>
@@ -2913,6 +2940,7 @@
           <t>49</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>14/01/2020</t>
@@ -3168,6 +3196,7 @@
           <t>54</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>07/03/2020</t>
@@ -3215,6 +3244,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>13/03/2020</t>
@@ -3366,6 +3396,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>16/09/2020</t>
@@ -3413,6 +3444,7 @@
           <t>59</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>27/11/2020</t>
@@ -3460,6 +3492,7 @@
           <t>60</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>29/11/2020</t>
@@ -3663,6 +3696,7 @@
           <t>64</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>26/07/2021</t>
@@ -3710,6 +3744,7 @@
           <t>65</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>29/03/2022</t>
@@ -3861,6 +3896,7 @@
           <t>68</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>28/08/2022</t>
@@ -3908,6 +3944,7 @@
           <t>69</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>31/08/2022</t>
@@ -4111,6 +4148,7 @@
           <t>73</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>11/09/2022</t>
@@ -4158,6 +4196,7 @@
           <t>74</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>17/11/2022</t>
@@ -4257,6 +4296,7 @@
           <t>76</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>22/11/2022</t>
@@ -4356,6 +4396,7 @@
           <t>78</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>19/03/2023</t>
@@ -7431,489 +7472,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4437</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.38%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4483</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.76%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4484</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>19.25%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4564</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4565</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4567</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4644</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4645</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4646</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.71%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8.21%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4666</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>11</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4728</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4732</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>11</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.72%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4527.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4527.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>06/02/2016</t>
@@ -656,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>05/06/2016</t>
@@ -756,7 +755,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>11/06/2016</t>
@@ -804,7 +802,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>13/06/2016</t>
@@ -904,7 +901,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>21/08/2016</t>
@@ -1056,7 +1052,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>31/08/2016</t>
@@ -1104,7 +1099,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>04/09/2016</t>
@@ -1152,7 +1146,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>27/09/2016</t>
@@ -1304,7 +1297,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>05/10/2016</t>
@@ -1508,7 +1500,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>22/01/2017</t>
@@ -1556,7 +1547,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>26/01/2017</t>
@@ -1656,7 +1646,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>05/06/2017</t>
@@ -1808,7 +1797,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>28/09/2017</t>
@@ -1856,7 +1844,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>01/10/2017</t>
@@ -1904,7 +1891,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>14/01/2018</t>
@@ -1952,7 +1938,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -2000,7 +1985,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>26/01/2018</t>
@@ -2256,7 +2240,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -2356,7 +2339,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>08/03/2019</t>
@@ -2404,7 +2386,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>10/03/2019</t>
@@ -2452,7 +2433,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>13/03/2019</t>
@@ -2500,7 +2480,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>22/03/2019</t>
@@ -2548,7 +2527,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>23/03/2019</t>
@@ -2596,7 +2574,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>27/03/2019</t>
@@ -2644,7 +2621,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>29/03/2019</t>
@@ -2692,7 +2668,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>31/03/2019</t>
@@ -2740,7 +2715,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -2892,7 +2866,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>20/06/2019</t>
@@ -2940,7 +2913,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>14/01/2020</t>
@@ -3196,7 +3168,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>07/03/2020</t>
@@ -3244,7 +3215,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>13/03/2020</t>
@@ -3396,7 +3366,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>16/09/2020</t>
@@ -3444,7 +3413,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>27/11/2020</t>
@@ -3492,7 +3460,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>29/11/2020</t>
@@ -3696,7 +3663,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>26/07/2021</t>
@@ -3744,7 +3710,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>29/03/2022</t>
@@ -3896,7 +3861,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>28/08/2022</t>
@@ -3944,7 +3908,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>31/08/2022</t>
@@ -4148,7 +4111,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>11/09/2022</t>
@@ -4196,7 +4158,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>17/11/2022</t>
@@ -4296,7 +4257,6 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>22/11/2022</t>
@@ -4396,7 +4356,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>19/03/2023</t>
@@ -7472,4 +7431,1631 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3886</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3893</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3894</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3896</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3898</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3909</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.85%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3923</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3924</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2.43%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3927</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3931</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3937</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3940</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3942</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3945</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3947</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3950</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3977</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3988</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4035</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>11</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4108</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4117</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4123</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4.45%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4125</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>9.52%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4224</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3.48%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4258</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>11</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>11</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>11</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>11</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4275</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>10</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>3.23%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>10</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1.70%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>10</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0.97%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>10</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>10</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1.38%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>9</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>4.76%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>9</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>19.25%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>10</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>11</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>10</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>10</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>10</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.71%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>10</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>8.21%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>10</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>11</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>10</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>11</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>3.72%</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>